--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,39 +455,34 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="B2" t="n">
-        <v>39762</v>
-      </c>
-      <c r="C2" t="n">
-        <v>14068</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>&lt;Cell 'sheet1'.A1&gt;</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>賣盤</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>租盤</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45109</v>
-      </c>
-      <c r="B3" t="n">
-        <v>39756</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14084</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>45118</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>39,617</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13,849</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>39618</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13853</t>
         </is>
       </c>
     </row>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -1,59 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\OAFILE06\TTHCHAN$\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>賣盤</t>
-  </si>
-  <si>
-    <t>租盤</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,44 +51,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -393,71 +427,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>賣盤</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>租盤</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>39762</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>14068</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45109</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>39756</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>14084</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45114</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>39643</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>13915</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45114</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>39643</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>13915</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>39633</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13871</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +499,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>45118</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -511,6 +508,21 @@
         </is>
       </c>
       <c r="C6" t="inlineStr">
+        <is>
+          <t>13871</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>39633</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>13871</t>
         </is>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,17 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B8" t="n">
+        <v>39633</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,17 @@
         <v>13871</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B9" t="n">
+        <v>39658</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -1,59 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>賣盤</t>
-  </si>
-  <si>
-    <t>租盤</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -393,115 +424,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>賣盤</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>租盤</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>39762</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>14068</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45109</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>39756</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>14084</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45114</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>39643</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>13915</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45114</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>39643</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>13915</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45118</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>39633</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>13871</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45118</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>39633</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>13871</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45118</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>39633</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>13871</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45118</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>39658</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>13897</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B10" t="n">
+        <v>39657</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13896</v>
       </c>
     </row>
   </sheetData>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -1,62 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Oafile06\tthchan$\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>賣盤</t>
-  </si>
-  <si>
-    <t>租盤</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -155,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,10 +215,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,7 +249,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,140 +424,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>賣盤</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>租盤</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>39762</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>14068</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45109</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>39756</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>14084</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45110</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>39850</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>14077</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45111</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>39833</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>14054</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45112</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>39677</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>14012</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45113</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>39677</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>14018</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45114</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>39697</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>13973</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45115</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>39694</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>13965</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45116</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>39704</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>13962</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45117</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>39763</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>13981</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B12" t="n">
+        <v>39704</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13921</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -1,62 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Oafile06\tthchan$\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>賣盤</t>
-  </si>
-  <si>
-    <t>租盤</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -155,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,10 +215,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,7 +249,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,140 +424,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>賣盤</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>租盤</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>39762</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>14068</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45109</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>39756</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>14084</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45110</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>39850</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>14077</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45111</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>39833</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>14054</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45112</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>39677</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>14012</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45113</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>39677</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>14018</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45114</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>39697</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>13973</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45115</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>39694</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>13965</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45116</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>39704</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>13962</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45117</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>39763</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>13981</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B12" t="n">
+        <v>39767</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13969</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,17 @@
         <v>13969</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B13" t="n">
+        <v>39777</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +586,17 @@
         <v>13925</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45120</v>
+      </c>
+      <c r="B14" t="n">
+        <v>39794</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13843</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,6 +597,17 @@
         <v>13843</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="B15" t="n">
+        <v>39831</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,6 +608,17 @@
         <v>13792</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45122</v>
+      </c>
+      <c r="B16" t="n">
+        <v>39820</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13769</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,6 +619,17 @@
         <v>13769</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45123</v>
+      </c>
+      <c r="B17" t="n">
+        <v>39834</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,17 @@
         <v>13757</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="B18" t="n">
+        <v>39848</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13732</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,6 +641,17 @@
         <v>13732</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45125</v>
+      </c>
+      <c r="B19" t="n">
+        <v>39748</v>
+      </c>
+      <c r="C19" t="n">
+        <v>13569</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,6 +652,17 @@
         <v>13569</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B20" t="n">
+        <v>39792</v>
+      </c>
+      <c r="C20" t="n">
+        <v>13614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,6 +663,17 @@
         <v>13614</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B21" t="n">
+        <v>39786</v>
+      </c>
+      <c r="C21" t="n">
+        <v>13539</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,6 +674,17 @@
         <v>13539</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B22" t="n">
+        <v>39772</v>
+      </c>
+      <c r="C22" t="n">
+        <v>13512</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,6 +1101,61 @@
         <v>17644</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>39769</v>
+      </c>
+      <c r="C24" t="n">
+        <v>589</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2479</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6456</v>
+      </c>
+      <c r="F24" t="n">
+        <v>11706</v>
+      </c>
+      <c r="G24" t="n">
+        <v>16402</v>
+      </c>
+      <c r="H24" t="n">
+        <v>20307</v>
+      </c>
+      <c r="I24" t="n">
+        <v>23746</v>
+      </c>
+      <c r="J24" t="n">
+        <v>26378</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5200</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1548</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3648</v>
+      </c>
+      <c r="N24" t="n">
+        <v>364</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3627</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9470</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>17657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1112,7 +1167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,6 +1407,16 @@
         <v>13468</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>13486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,6 +1156,61 @@
         <v>17657</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>39776</v>
+      </c>
+      <c r="C25" t="n">
+        <v>588</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2472</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6469</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11727</v>
+      </c>
+      <c r="G25" t="n">
+        <v>16414</v>
+      </c>
+      <c r="H25" t="n">
+        <v>20319</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23755</v>
+      </c>
+      <c r="J25" t="n">
+        <v>26386</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5210</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1543</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3640</v>
+      </c>
+      <c r="N25" t="n">
+        <v>365</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3630</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9476</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>17665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1167,7 +1222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1417,6 +1472,16 @@
         <v>13486</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>13441</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1211,6 +1211,61 @@
         <v>17665</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>39799</v>
+      </c>
+      <c r="C26" t="n">
+        <v>587</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2468</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6465</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11718</v>
+      </c>
+      <c r="G26" t="n">
+        <v>16430</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20330</v>
+      </c>
+      <c r="I26" t="n">
+        <v>23768</v>
+      </c>
+      <c r="J26" t="n">
+        <v>26398</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5226</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1545</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3638</v>
+      </c>
+      <c r="N26" t="n">
+        <v>366</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3631</v>
+      </c>
+      <c r="P26" t="n">
+        <v>9478</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>17665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1222,7 +1277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1482,6 +1537,16 @@
         <v>13441</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>13389</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1266,6 +1266,61 @@
         <v>17665</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>39741</v>
+      </c>
+      <c r="C27" t="n">
+        <v>590</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2464</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6450</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11678</v>
+      </c>
+      <c r="G27" t="n">
+        <v>16385</v>
+      </c>
+      <c r="H27" t="n">
+        <v>20284</v>
+      </c>
+      <c r="I27" t="n">
+        <v>23714</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26350</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5216</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1545</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3639</v>
+      </c>
+      <c r="N27" t="n">
+        <v>367</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3619</v>
+      </c>
+      <c r="P27" t="n">
+        <v>9445</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>17622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1277,7 +1332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1547,6 +1602,16 @@
         <v>13389</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-07-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>13355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1321,6 +1321,61 @@
         <v>17622</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>39719</v>
+      </c>
+      <c r="C28" t="n">
+        <v>587</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2460</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6455</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11697</v>
+      </c>
+      <c r="G28" t="n">
+        <v>16400</v>
+      </c>
+      <c r="H28" t="n">
+        <v>20295</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23720</v>
+      </c>
+      <c r="J28" t="n">
+        <v>26346</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5206</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1548</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3637</v>
+      </c>
+      <c r="N28" t="n">
+        <v>367</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3618</v>
+      </c>
+      <c r="P28" t="n">
+        <v>9445</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>17622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1332,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1612,6 +1667,16 @@
         <v>13355</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>13300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1376,6 +1376,61 @@
         <v>17622</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>39738</v>
+      </c>
+      <c r="C29" t="n">
+        <v>592</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2476</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6489</v>
+      </c>
+      <c r="F29" t="n">
+        <v>11734</v>
+      </c>
+      <c r="G29" t="n">
+        <v>16426</v>
+      </c>
+      <c r="H29" t="n">
+        <v>20325</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23743</v>
+      </c>
+      <c r="J29" t="n">
+        <v>26365</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5202</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1545</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3643</v>
+      </c>
+      <c r="N29" t="n">
+        <v>367</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3619</v>
+      </c>
+      <c r="P29" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>17638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1387,7 +1442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,6 +1732,16 @@
         <v>13300</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>13286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,6 +1431,61 @@
         <v>17638</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>39710</v>
+      </c>
+      <c r="C30" t="n">
+        <v>589</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2472</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6478</v>
+      </c>
+      <c r="F30" t="n">
+        <v>11724</v>
+      </c>
+      <c r="G30" t="n">
+        <v>16419</v>
+      </c>
+      <c r="H30" t="n">
+        <v>20320</v>
+      </c>
+      <c r="I30" t="n">
+        <v>23736</v>
+      </c>
+      <c r="J30" t="n">
+        <v>26353</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5186</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1543</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3640</v>
+      </c>
+      <c r="N30" t="n">
+        <v>364</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3613</v>
+      </c>
+      <c r="P30" t="n">
+        <v>9451</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>17632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1442,7 +1497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1742,6 +1797,16 @@
         <v>13286</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>13258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1486,6 +1486,61 @@
         <v>17632</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>39748</v>
+      </c>
+      <c r="C31" t="n">
+        <v>589</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2474</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6495</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11752</v>
+      </c>
+      <c r="G31" t="n">
+        <v>16463</v>
+      </c>
+      <c r="H31" t="n">
+        <v>20365</v>
+      </c>
+      <c r="I31" t="n">
+        <v>23791</v>
+      </c>
+      <c r="J31" t="n">
+        <v>26408</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5176</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1548</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3633</v>
+      </c>
+      <c r="N31" t="n">
+        <v>363</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3608</v>
+      </c>
+      <c r="P31" t="n">
+        <v>9458</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>17652</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1497,7 +1552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1807,6 +1862,16 @@
         <v>13258</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-07-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1541,6 +1541,61 @@
         <v>17652</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>39779</v>
+      </c>
+      <c r="C32" t="n">
+        <v>591</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2483</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6512</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11771</v>
+      </c>
+      <c r="G32" t="n">
+        <v>16487</v>
+      </c>
+      <c r="H32" t="n">
+        <v>20398</v>
+      </c>
+      <c r="I32" t="n">
+        <v>23830</v>
+      </c>
+      <c r="J32" t="n">
+        <v>26444</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5167</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1545</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3635</v>
+      </c>
+      <c r="N32" t="n">
+        <v>363</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3611</v>
+      </c>
+      <c r="P32" t="n">
+        <v>9465</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>17668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1552,7 +1607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1872,6 +1927,16 @@
         <v>13281</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>13254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1596,6 +1596,61 @@
         <v>17668</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>39757</v>
+      </c>
+      <c r="C33" t="n">
+        <v>589</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2485</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6530</v>
+      </c>
+      <c r="F33" t="n">
+        <v>11776</v>
+      </c>
+      <c r="G33" t="n">
+        <v>16482</v>
+      </c>
+      <c r="H33" t="n">
+        <v>20380</v>
+      </c>
+      <c r="I33" t="n">
+        <v>23807</v>
+      </c>
+      <c r="J33" t="n">
+        <v>26430</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5169</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1549</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3633</v>
+      </c>
+      <c r="N33" t="n">
+        <v>364</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3606</v>
+      </c>
+      <c r="P33" t="n">
+        <v>9463</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>17650</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1607,7 +1662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1937,6 +1992,16 @@
         <v>13254</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>13200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1651,6 +1651,61 @@
         <v>17650</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>39737</v>
+      </c>
+      <c r="C34" t="n">
+        <v>588</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2483</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6535</v>
+      </c>
+      <c r="F34" t="n">
+        <v>11763</v>
+      </c>
+      <c r="G34" t="n">
+        <v>16469</v>
+      </c>
+      <c r="H34" t="n">
+        <v>20378</v>
+      </c>
+      <c r="I34" t="n">
+        <v>23791</v>
+      </c>
+      <c r="J34" t="n">
+        <v>26418</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5160</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1547</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3630</v>
+      </c>
+      <c r="N34" t="n">
+        <v>364</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3600</v>
+      </c>
+      <c r="P34" t="n">
+        <v>9457</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>17642</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1662,7 +1717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2002,6 +2057,16 @@
         <v>13200</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>13223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1706,6 +1706,61 @@
         <v>17642</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>39761</v>
+      </c>
+      <c r="C35" t="n">
+        <v>589</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2482</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6535</v>
+      </c>
+      <c r="F35" t="n">
+        <v>11760</v>
+      </c>
+      <c r="G35" t="n">
+        <v>16482</v>
+      </c>
+      <c r="H35" t="n">
+        <v>20403</v>
+      </c>
+      <c r="I35" t="n">
+        <v>23821</v>
+      </c>
+      <c r="J35" t="n">
+        <v>26440</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5161</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1547</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3632</v>
+      </c>
+      <c r="N35" t="n">
+        <v>364</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3601</v>
+      </c>
+      <c r="P35" t="n">
+        <v>9466</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>17655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1717,7 +1772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2067,6 +2122,16 @@
         <v>13223</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>13183</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,6 +1761,61 @@
         <v>17655</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>39679</v>
+      </c>
+      <c r="C36" t="n">
+        <v>586</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2472</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6514</v>
+      </c>
+      <c r="F36" t="n">
+        <v>11731</v>
+      </c>
+      <c r="G36" t="n">
+        <v>16443</v>
+      </c>
+      <c r="H36" t="n">
+        <v>20348</v>
+      </c>
+      <c r="I36" t="n">
+        <v>23760</v>
+      </c>
+      <c r="J36" t="n">
+        <v>26375</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5158</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1545</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3628</v>
+      </c>
+      <c r="N36" t="n">
+        <v>363</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3591</v>
+      </c>
+      <c r="P36" t="n">
+        <v>9442</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>17615</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1772,7 +1827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2132,6 +2187,16 @@
         <v>13183</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>13056</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,6 +1761,61 @@
         <v>17655</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>39786</v>
+      </c>
+      <c r="C36" t="n">
+        <v>590</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6544</v>
+      </c>
+      <c r="F36" t="n">
+        <v>11778</v>
+      </c>
+      <c r="G36" t="n">
+        <v>16500</v>
+      </c>
+      <c r="H36" t="n">
+        <v>20419</v>
+      </c>
+      <c r="I36" t="n">
+        <v>23836</v>
+      </c>
+      <c r="J36" t="n">
+        <v>26453</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5171</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1546</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3636</v>
+      </c>
+      <c r="N36" t="n">
+        <v>364</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3603</v>
+      </c>
+      <c r="P36" t="n">
+        <v>9477</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>17668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1772,7 +1827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2132,6 +2187,16 @@
         <v>13183</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>13146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,6 +1816,61 @@
         <v>17668</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>39685</v>
+      </c>
+      <c r="C37" t="n">
+        <v>589</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2482</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6523</v>
+      </c>
+      <c r="F37" t="n">
+        <v>11740</v>
+      </c>
+      <c r="G37" t="n">
+        <v>16454</v>
+      </c>
+      <c r="H37" t="n">
+        <v>20360</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23769</v>
+      </c>
+      <c r="J37" t="n">
+        <v>26376</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5160</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1543</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3627</v>
+      </c>
+      <c r="N37" t="n">
+        <v>364</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3591</v>
+      </c>
+      <c r="P37" t="n">
+        <v>9450</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>17616</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1827,7 +1882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2197,6 +2252,16 @@
         <v>13146</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>13048</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1871,6 +1871,61 @@
         <v>17616</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>39684</v>
+      </c>
+      <c r="C38" t="n">
+        <v>589</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2482</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6523</v>
+      </c>
+      <c r="F38" t="n">
+        <v>11740</v>
+      </c>
+      <c r="G38" t="n">
+        <v>16454</v>
+      </c>
+      <c r="H38" t="n">
+        <v>20360</v>
+      </c>
+      <c r="I38" t="n">
+        <v>23769</v>
+      </c>
+      <c r="J38" t="n">
+        <v>26376</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5159</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1542</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3627</v>
+      </c>
+      <c r="N38" t="n">
+        <v>364</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3591</v>
+      </c>
+      <c r="P38" t="n">
+        <v>9450</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>17616</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1882,7 +1937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2262,6 +2317,16 @@
         <v>13048</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>13047</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Centaline_sale_lease.xlsx
+++ b/Centaline_sale_lease.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1926,6 +1926,61 @@
         <v>17616</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>39684</v>
+      </c>
+      <c r="C39" t="n">
+        <v>590</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2482</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6523</v>
+      </c>
+      <c r="F39" t="n">
+        <v>11739</v>
+      </c>
+      <c r="G39" t="n">
+        <v>16453</v>
+      </c>
+      <c r="H39" t="n">
+        <v>20359</v>
+      </c>
+      <c r="I39" t="n">
+        <v>23768</v>
+      </c>
+      <c r="J39" t="n">
+        <v>26374</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5161</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1541</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3627</v>
+      </c>
+      <c r="N39" t="n">
+        <v>364</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3590</v>
+      </c>
+      <c r="P39" t="n">
+        <v>9449</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>17615</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1937,7 +1992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2327,6 +2382,16 @@
         <v>13047</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>13051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
